--- a/optimizer/algorithms/dummy_excel/depots.xlsx
+++ b/optimizer/algorithms/dummy_excel/depots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willsen Yogi P\Downloads\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willsen Yogi P\Desktop\Program Skripsi\ORwebBE\optimizer\algorithms\dummy_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49939DE5-3472-4EC9-A17D-8222FBEF81C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2A3B4-790D-4542-A230-4D9C2A7D4DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>X</t>
+    <t>Longitude</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
